--- a/meta/8-2-1.xlsx
+++ b/meta/8-2-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B5F95-38AA-4BCA-8EB5-A15F9C06E5DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +110,6 @@
     <t>8.2: Добиться повышения производительности в экономике посредством диверсификации, технической модернизации и инновационной деятельности, в том числе путем удаления особого внимания секторам с высокой добавленной стоимостью и трудоемким секторам</t>
   </si>
   <si>
-    <t>8.2.1: Ежегодные темпы роста реального ВВП на одного занятого</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет Кыргызской Республики
 (Управление экономической статистики и национальных счетов)</t>
   </si>
@@ -125,9 +121,6 @@
   </si>
   <si>
     <t>(0312) 32 46 95</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Годовой темп роста реального ВВП на одного занятого это отношение прироста величины реального ВВП на одного занятого в течение рассматриваемого года к величине реального ВВП на одного занятого в предыдущем году выраженное в процентах.</t>
@@ -199,17 +192,31 @@
   <si>
     <t xml:space="preserve">Национальная платформа отчётности ЦУР: https://sustainabledevelopment-kyrgyzstan.github.io </t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>8.2.1 Ежегодные темпы роста реального ВВП на каждого занятого</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,32 +292,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{642053CE-0876-40D3-B98D-E36D5B46E9E3}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EECAADD-ED78-4D7A-B5C3-AEF1DC071458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -650,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -658,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,15 +677,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -704,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -740,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,7 +781,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,7 +805,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/meta/8-2-1.xlsx
+++ b/meta/8-2-1.xlsx
@@ -2,24 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Пример" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -110,6 +100,9 @@
     <t>8.2: Добиться повышения производительности в экономике посредством диверсификации, технической модернизации и инновационной деятельности, в том числе путем удаления особого внимания секторам с высокой добавленной стоимостью и трудоемким секторам</t>
   </si>
   <si>
+    <t>8.2.1 Ежегодные темпы роста реального ВВП на каждого занятого</t>
+  </si>
+  <si>
     <t>Национальный статистический комитет Кыргызской Республики
 (Управление экономической статистики и национальных счетов)</t>
   </si>
@@ -123,6 +116,9 @@
     <t>(0312) 32 46 95</t>
   </si>
   <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
     <t>Годовой темп роста реального ВВП на одного занятого это отношение прироста величины реального ВВП на одного занятого в течение рассматриваемого года к величине реального ВВП на одного занятого в предыдущем году выраженное в процентах.</t>
   </si>
   <si>
@@ -139,39 +135,14 @@
     <t>Показатель расчетный, при котором используются данные отраслевой статистики. Периодичность: годовая.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В общем виде эффективность производства измеряется соотношением результатов производства и затрат на производство. В качестве показателя, характеризующего результаты производства, используется валовая добавленная стоимость. Затраты на производство включают затраты труда и затраты капитала. 
+    <t>В общем виде эффективность производства измеряется соотношением результатов производства и затрат на производство. В качестве показателя, характеризующего результаты производства, используется валовая добавленная стоимость. Затраты на производство включают затраты труда и затраты капитала. 
 Индекс производительности труда рассчитывается по формуле: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PL=VA/L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+PL=VA/L
 где, 
 PL – индекс производительности труда; 
 VA – индекс валовой добавленной стоимости (ВДС), 
 L – индекс затрат труда. 
 Индекс валовой добавленной стоимости характеризуется реальными темпами роста ВВП (ВДС) в процентах к предыдущему году и к базисному году.  Индекс затрат труда рассчитывается по данным модуля «Занятость и безработица» интегрированного выборочного обследования домашних хозяйств и рабочей силы и представляют собой темпы роста численности занятого населения. Расчеты производятся также по видам экономической деятельности.</t>
-    </r>
   </si>
   <si>
     <t>Производительность труда - важнейший показатель эффективности производства, зависящий от уровня развития производительных сил в обществе, степени использования его производственного, научного, трудового, природного потенциала, соответствия производственных отношений характеру производительных сил.</t>
@@ -191,19 +162,13 @@
   </si>
   <si>
     <t xml:space="preserve">Национальная платформа отчётности ЦУР: https://sustainabledevelopment-kyrgyzstan.github.io </t>
-  </si>
-  <si>
-    <t>www.stat.gov.kg</t>
-  </si>
-  <si>
-    <t>8.2.1 Ежегодные темпы роста реального ВВП на каждого занятого</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,10 +189,26 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -248,7 +229,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -290,41 +270,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -337,9 +339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,44 +349,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -417,9 +419,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -449,7 +451,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,142 +460,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -602,13 +628,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -622,15 +648,15 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -638,8 +664,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,32 +678,32 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,28 +720,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,8 +754,8 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>35</v>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -746,28 +772,28 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>39</v>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,7 +807,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,23 +815,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
